--- a/Mutual Fund Portfolio.xlsx
+++ b/Mutual Fund Portfolio.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Excel practice\Projects\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9F5C45-83AC-4493-A68E-60AFD02114AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42A7E2B-F14F-4AD5-AABB-468F70D065E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Tracker" sheetId="2" r:id="rId1"/>
     <sheet name="Holding_MutualFund_Details" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="XIRR" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Holding_MutualFund_Details!$A$2:$A$184</definedName>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Extract" localSheetId="0">'Portfolio Tracker'!#REF!</definedName>
     <definedName name="Scheme">Holding_MutualFund_Details!$A$2:$A$184</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1276,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1307,7 +1307,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1327,7 +1326,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1351,20 +1350,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1378,20 +1374,9 @@
     <xf numFmtId="170" fontId="8" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1404,62 +1389,23 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1989,6 +1935,26 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2733,33 +2699,15 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>41.86%</a:t>
+            <a:t>11.13% </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3032,15 +2980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>657225</xdr:rowOff>
+      <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>971550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3072,7 +3020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="1228725"/>
+          <a:off x="600075" y="1200150"/>
           <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3085,15 +3033,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>552450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
+      <xdr:rowOff>885825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3125,7 +3073,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="1171575"/>
+          <a:off x="4629150" y="1123950"/>
           <a:ext cx="333375" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3138,15 +3086,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:colOff>2438400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
+      <xdr:rowOff>600075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:colOff>2733675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:rowOff>895350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3178,7 +3126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="1219200"/>
+          <a:off x="2667000" y="1171575"/>
           <a:ext cx="295275" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3245,45 +3193,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="B3:G10" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="B3:G10" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fund Name" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units Held" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fund Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units Held" dataDxfId="23">
       <calculatedColumnFormula>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Invested" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Invested" dataDxfId="22">
       <calculatedColumnFormula>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value" dataDxfId="21">
       <calculatedColumnFormula>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Profit/Loss" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Profit/Loss" dataDxfId="20">
       <calculatedColumnFormula>E4-D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="XIRR" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="XIRR" dataDxfId="19" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MutualFunds" displayName="MutualFunds" ref="A2:O184" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MutualFunds" displayName="MutualFunds" ref="A2:O184" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scheme Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Folio No." dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trx. Status" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Trx. Date" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Units" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Avg.Price" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Purchase value" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Cur.NAV/ NAV Date" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Current Value" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Unrealized Gain/Loss" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Alloc.%" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Dividend" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="No. of Days" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Abs.Return(%)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ann.Return(%)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scheme Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Folio No." dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Trx. Status" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Trx. Date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Units" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Avg.Price" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Purchase value" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Cur.NAV/ NAV Date" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Current Value" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Unrealized Gain/Loss" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Alloc.%" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Dividend" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="No. of Days" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Abs.Return(%)" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ann.Return(%)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3547,24 +3495,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="47" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>215</v>
       </c>
@@ -3595,268 +3542,251 @@
     </row>
     <row r="2" spans="1:25" s="80" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>34.450000000000003</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>35998</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B4)</f>
         <v>34739.57</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f>E4-D4</f>
         <v>-1258.4300000000003</v>
       </c>
-      <c r="G4" s="37">
-        <f>Sheet1!E4</f>
+      <c r="G4" s="36">
+        <f>XIRR!E4</f>
         <v>-1.3069321215152741E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>509.33</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>34998</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B5)</f>
         <v>30221.42</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f t="shared" ref="F5:F10" si="0">E5-D5</f>
         <v>-4776.5800000000017</v>
       </c>
-      <c r="G5" s="37">
-        <f>Sheet1!E23</f>
+      <c r="G5" s="36">
+        <f>XIRR!E23</f>
         <v>-0.13648151322932744</v>
       </c>
-      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>612.97</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>69428</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B6)</f>
         <v>87363.760000000024</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <f t="shared" si="0"/>
         <v>17935.760000000024</v>
       </c>
-      <c r="G6" s="37">
-        <f>Sheet1!E26</f>
+      <c r="G6" s="36">
+        <f>XIRR!E26</f>
         <v>0.19093142151832582</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>1482.3000000000002</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>69500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B7)</f>
         <v>69771.100000000006</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>271.10000000000582</v>
       </c>
-      <c r="G7" s="37">
-        <f>Sheet1!E62</f>
+      <c r="G7" s="36">
+        <f>XIRR!E62</f>
         <v>4.1169187426567083E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>1156.6099999999999</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>76000</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B8)</f>
         <v>99579.5</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>23579.5</v>
       </c>
-      <c r="G8" s="37">
-        <f>Sheet1!E102</f>
+      <c r="G8" s="36">
+        <f>XIRR!E102</f>
         <v>0.19767104983329775</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>420.32000000000005</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>24000</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B9)</f>
         <v>23102.149999999998</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f t="shared" si="0"/>
         <v>-897.85000000000218</v>
       </c>
-      <c r="G9" s="37">
-        <f>Sheet1!E141</f>
+      <c r="G9" s="36">
+        <f>XIRR!E141</f>
         <v>-5.0619989633560192E-4</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <f>SUMIFS(MutualFunds[Units],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>638.86</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <f>SUMIFS(MutualFunds[Purchase value],MutualFunds[Scheme Name],Table3[[#This Row],[Fund Name]])</f>
         <v>108425</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <f>SUMIFS(MutualFunds[Current Value],MutualFunds[Scheme Name],B10)</f>
         <v>134537.78</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>26112.78</v>
       </c>
-      <c r="G10" s="42">
-        <f>Sheet1!E158</f>
+      <c r="G10" s="41">
+        <f>XIRR!E158</f>
         <v>0.13889982104301452</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="72">
         <f>SUM(C4:C10)</f>
         <v>4854.8399999999992</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="73">
         <f t="shared" ref="D14:F14" si="1">SUM(D4:D10)</f>
         <v>418349</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="74">
         <f t="shared" si="1"/>
         <v>479315.28</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="74">
         <f t="shared" si="1"/>
         <v>60966.280000000028</v>
       </c>
-      <c r="G14" s="84">
-        <f>SUM(Table3[XIRR])</f>
-        <v>0.41861444548038934</v>
-      </c>
+      <c r="G14" s="75">
+        <f>(SUMPRODUCT(Table3[Value],Table3[XIRR]))/SUM(Table3[Value])</f>
+        <v>0.1112707740353332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3864,18 +3794,18 @@
     <mergeCell ref="A2:XFD2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>F4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>F4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>G4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>G4&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3892,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S190"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="E133" sqref="E96:E133"/>
     </sheetView>
   </sheetViews>
@@ -3923,56 +3853,56 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="32"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="10">
@@ -4014,13 +3944,13 @@
       <c r="N3" s="5">
         <v>-15.8</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="19">
         <v>-31.1</v>
       </c>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10">
@@ -4062,13 +3992,13 @@
       <c r="N4" s="5">
         <v>-14.8</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>-24.7</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10">
@@ -4110,13 +4040,13 @@
       <c r="N5" s="5">
         <v>-14</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>-40.6</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10">
@@ -4158,13 +4088,13 @@
       <c r="N6" s="5">
         <v>-12.6</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>-127.8</v>
       </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="10">
@@ -4206,13 +4136,13 @@
       <c r="N7" s="5">
         <v>-12.1</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>-17.899999999999999</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="10">
@@ -4254,13 +4184,13 @@
       <c r="N8" s="5">
         <v>-10.7</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>-41.1</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="10">
@@ -4302,13 +4232,13 @@
       <c r="N9" s="5">
         <v>-10.6</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>-24.7</v>
       </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="10">
@@ -4350,13 +4280,13 @@
       <c r="N10" s="5">
         <v>-7.6</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>-10</v>
       </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -4398,13 +4328,13 @@
       <c r="N11" s="5">
         <v>-5.5</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>-6.5</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="10">
@@ -4446,13 +4376,13 @@
       <c r="N12" s="5">
         <v>-3.2</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>-293.89999999999998</v>
       </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="10">
@@ -4494,13 +4424,13 @@
       <c r="N13" s="5">
         <v>-2.7</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>-14.5</v>
       </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="10">
@@ -4542,13 +4472,13 @@
       <c r="N14" s="5">
         <v>-2.7</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>-2.9</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="10">
@@ -4590,13 +4520,13 @@
       <c r="N15" s="5">
         <v>3.1</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <v>3.1</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="10">
@@ -4638,13 +4568,13 @@
       <c r="N16" s="5">
         <v>5.8</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10">
@@ -4686,13 +4616,13 @@
       <c r="N17" s="5">
         <v>6.1</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>5.5</v>
       </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="10">
@@ -4734,13 +4664,13 @@
       <c r="N18" s="5">
         <v>6.3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <v>5</v>
       </c>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="10">
@@ -4782,13 +4712,13 @@
       <c r="N19" s="5">
         <v>10.3</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>7.7</v>
       </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="10">
@@ -4830,13 +4760,13 @@
       <c r="N20" s="5">
         <v>17.8</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>12.5</v>
       </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="10">
@@ -4878,13 +4808,13 @@
       <c r="N21" s="5">
         <v>-13.6</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <v>-113.2</v>
       </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="10">
@@ -4926,13 +4856,13 @@
       <c r="N22" s="5">
         <v>-15.2</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="19">
         <v>-29.3</v>
       </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="10">
@@ -4974,13 +4904,13 @@
       <c r="N23" s="5">
         <v>-15.2</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="19">
         <v>-43.2</v>
       </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="10">
@@ -5022,13 +4952,13 @@
       <c r="N24" s="5">
         <v>-13.4</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="19">
         <v>-22.3</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="10">
@@ -5070,13 +5000,13 @@
       <c r="N25" s="5">
         <v>-12</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <v>-115.4</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="10">
@@ -5118,13 +5048,13 @@
       <c r="N26" s="5">
         <v>-11.6</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <v>-16.899999999999999</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="10">
@@ -5166,13 +5096,13 @@
       <c r="N27" s="5">
         <v>-11.5</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
         <v>-43.3</v>
       </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="10">
@@ -5214,13 +5144,13 @@
       <c r="N28" s="5">
         <v>-10.4</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="19">
         <v>-23.9</v>
       </c>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="10">
@@ -5262,13 +5192,13 @@
       <c r="N29" s="5">
         <v>-6.3</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="19">
         <v>-8.1999999999999993</v>
       </c>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="10">
@@ -5310,13 +5240,13 @@
       <c r="N30" s="5">
         <v>-4</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="19">
         <v>-181.8</v>
       </c>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="10">
@@ -5358,13 +5288,13 @@
       <c r="N31" s="5">
         <v>-3</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="19">
         <v>-3.5</v>
       </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="10">
@@ -5406,13 +5336,13 @@
       <c r="N32" s="5">
         <v>-1.5</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="19">
         <v>-8.1999999999999993</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="10">
@@ -5454,13 +5384,13 @@
       <c r="N33" s="5">
         <v>1</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="10">
@@ -5502,13 +5432,13 @@
       <c r="N34" s="5">
         <v>7.9</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="19">
         <v>6.6</v>
       </c>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="10">
@@ -5550,13 +5480,13 @@
       <c r="N35" s="5">
         <v>51.7</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="19">
         <v>18.100000000000001</v>
       </c>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="10">
@@ -5598,13 +5528,13 @@
       <c r="N36" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="19">
         <v>8.5</v>
       </c>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="10">
@@ -5646,13 +5576,13 @@
       <c r="N37" s="5">
         <v>9.6</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="19">
         <v>7.6</v>
       </c>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="10">
@@ -5694,13 +5624,13 @@
       <c r="N38" s="5">
         <v>10.6</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="19">
         <v>9.6</v>
       </c>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="10">
@@ -5742,13 +5672,13 @@
       <c r="N39" s="5">
         <v>15.7</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="19">
         <v>11.6</v>
       </c>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10">
@@ -5790,13 +5720,13 @@
       <c r="N40" s="5">
         <v>22.5</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="19">
         <v>15.8</v>
       </c>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="10">
@@ -5838,13 +5768,13 @@
       <c r="N41" s="5">
         <v>34.9</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="19">
         <v>23</v>
       </c>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="10">
@@ -5886,13 +5816,13 @@
       <c r="N42" s="5">
         <v>38.6</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="19">
         <v>17</v>
       </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="10">
@@ -5934,13 +5864,13 @@
       <c r="N43" s="5">
         <v>41.3</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="19">
         <v>25.8</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="10">
@@ -5982,13 +5912,13 @@
       <c r="N44" s="5">
         <v>44</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="19">
         <v>26.2</v>
       </c>
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="10">
@@ -6030,13 +5960,13 @@
       <c r="N45" s="5">
         <v>44.8</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="19">
         <v>20.399999999999999</v>
       </c>
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="10">
@@ -6078,13 +6008,13 @@
       <c r="N46" s="5">
         <v>49</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="19">
         <v>20.8</v>
       </c>
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="10">
@@ -6126,13 +6056,13 @@
       <c r="N47" s="5">
         <v>49</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="19">
         <v>20.100000000000001</v>
       </c>
       <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="10">
@@ -6174,13 +6104,13 @@
       <c r="N48" s="5">
         <v>50.3</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="19">
         <v>28.4</v>
       </c>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="10">
@@ -6222,13 +6152,13 @@
       <c r="N49" s="5">
         <v>51.5</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="19">
         <v>20.399999999999999</v>
       </c>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="10">
@@ -6270,13 +6200,13 @@
       <c r="N50" s="5">
         <v>56.8</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="19">
         <v>30.6</v>
       </c>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="10">
@@ -6318,13 +6248,13 @@
       <c r="N51" s="5">
         <v>61.2</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="19">
         <v>23.5</v>
       </c>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="10">
@@ -6366,13 +6296,13 @@
       <c r="N52" s="5">
         <v>64.2</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="19">
         <v>33.1</v>
       </c>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="10">
@@ -6414,13 +6344,13 @@
       <c r="N53" s="5">
         <v>67.2</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="19">
         <v>24.2</v>
       </c>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="10">
@@ -6462,13 +6392,13 @@
       <c r="N54" s="5">
         <v>67.400000000000006</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="19">
         <v>25.1</v>
       </c>
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="10">
@@ -6510,13 +6440,13 @@
       <c r="N55" s="5">
         <v>79.400000000000006</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="19">
         <v>39.200000000000003</v>
       </c>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="10">
@@ -6558,13 +6488,13 @@
       <c r="N56" s="5">
         <v>88.3</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="19">
         <v>42.1</v>
       </c>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -6606,13 +6536,13 @@
       <c r="N57" s="5">
         <v>-15</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="19">
         <v>-46</v>
       </c>
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -6654,13 +6584,13 @@
       <c r="N58" s="5">
         <v>-13.8</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="19">
         <v>-23.9</v>
       </c>
       <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -6702,13 +6632,13 @@
       <c r="N59" s="5">
         <v>-13.8</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="19">
         <v>-28.1</v>
       </c>
       <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -6750,13 +6680,13 @@
       <c r="N60" s="5">
         <v>-11.3</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="19">
         <v>-17.2</v>
       </c>
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -6798,13 +6728,13 @@
       <c r="N61" s="5">
         <v>-9.9</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="19">
         <v>-24.2</v>
       </c>
       <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -6846,13 +6776,13 @@
       <c r="N62" s="5">
         <v>-9.6</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="19">
         <v>-140.30000000000001</v>
       </c>
       <c r="P62" s="1"/>
     </row>
     <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -6894,13 +6824,13 @@
       <c r="N63" s="5">
         <v>-7.4</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O63" s="19">
         <v>-30.9</v>
       </c>
       <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -6942,13 +6872,13 @@
       <c r="N64" s="5">
         <v>-6.4</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="19">
         <v>-8.6</v>
       </c>
       <c r="P64" s="1"/>
     </row>
     <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -6990,13 +6920,13 @@
       <c r="N65" s="5">
         <v>-4.7</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O65" s="19">
         <v>-29</v>
       </c>
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -7038,13 +6968,13 @@
       <c r="N66" s="5">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="O66" s="20">
+      <c r="O66" s="19">
         <v>-5.5</v>
       </c>
       <c r="P66" s="1"/>
     </row>
     <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -7086,13 +7016,13 @@
       <c r="N67" s="5">
         <v>-2.6</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="19">
         <v>-2.8</v>
       </c>
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -7134,13 +7064,13 @@
       <c r="N68" s="5">
         <v>1.8</v>
       </c>
-      <c r="O68" s="20">
+      <c r="O68" s="19">
         <v>1.5</v>
       </c>
       <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -7182,13 +7112,13 @@
       <c r="N69" s="5">
         <v>3.2</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="19">
         <v>2.7</v>
       </c>
       <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -7230,13 +7160,13 @@
       <c r="N70" s="5">
         <v>3.2</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="19">
         <v>3.3</v>
       </c>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -7278,13 +7208,13 @@
       <c r="N71" s="5">
         <v>5.5</v>
       </c>
-      <c r="O71" s="20">
+      <c r="O71" s="19">
         <v>5.0999999999999996</v>
       </c>
       <c r="P71" s="1"/>
     </row>
     <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -7326,13 +7256,13 @@
       <c r="N72" s="5">
         <v>6.6</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O72" s="19">
         <v>5</v>
       </c>
       <c r="P72" s="1"/>
     </row>
     <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -7374,13 +7304,13 @@
       <c r="N73" s="5">
         <v>14.5</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O73" s="19">
         <v>10.3</v>
       </c>
       <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -7422,13 +7352,13 @@
       <c r="N74" s="5">
         <v>-13.4</v>
       </c>
-      <c r="O74" s="20">
+      <c r="O74" s="19">
         <v>-40.200000000000003</v>
       </c>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -7470,13 +7400,13 @@
       <c r="N75" s="5">
         <v>-12.9</v>
       </c>
-      <c r="O75" s="20">
+      <c r="O75" s="19">
         <v>-25.7</v>
       </c>
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -7518,13 +7448,13 @@
       <c r="N76" s="5">
         <v>-12.6</v>
       </c>
-      <c r="O76" s="20">
+      <c r="O76" s="19">
         <v>-21.5</v>
       </c>
       <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -7566,13 +7496,13 @@
       <c r="N77" s="5">
         <v>-11.5</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="19">
         <v>-131</v>
       </c>
       <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -7614,13 +7544,13 @@
       <c r="N78" s="5">
         <v>-11.3</v>
       </c>
-      <c r="O78" s="20">
+      <c r="O78" s="19">
         <v>-17.2</v>
       </c>
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -7662,13 +7592,13 @@
       <c r="N79" s="5">
         <v>-10.6</v>
       </c>
-      <c r="O79" s="20">
+      <c r="O79" s="19">
         <v>-42.4</v>
       </c>
       <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -7710,13 +7640,13 @@
       <c r="N80" s="5">
         <v>-10.5</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="19">
         <v>-24.9</v>
       </c>
       <c r="P80" s="1"/>
     </row>
     <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -7758,13 +7688,13 @@
       <c r="N81" s="5">
         <v>-5.6</v>
       </c>
-      <c r="O81" s="20">
+      <c r="O81" s="19">
         <v>-7.5</v>
       </c>
       <c r="P81" s="1"/>
     </row>
     <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -7806,13 +7736,13 @@
       <c r="N82" s="5">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="O82" s="20">
+      <c r="O82" s="19">
         <v>-23.5</v>
       </c>
       <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -7854,13 +7784,13 @@
       <c r="N83" s="5">
         <v>-3.9</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="19">
         <v>-4.7</v>
       </c>
       <c r="P83" s="1"/>
     </row>
     <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -7902,13 +7832,13 @@
       <c r="N84" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="19">
         <v>-2.5</v>
       </c>
       <c r="P84" s="1"/>
     </row>
     <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -7950,13 +7880,13 @@
       <c r="N85" s="5">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="O85" s="20">
+      <c r="O85" s="19">
         <v>-264</v>
       </c>
       <c r="P85" s="1"/>
     </row>
     <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -7998,13 +7928,13 @@
       <c r="N86" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O86" s="20">
+      <c r="O86" s="19">
         <v>2</v>
       </c>
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -8046,13 +7976,13 @@
       <c r="N87" s="5">
         <v>2.6</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O87" s="19">
         <v>2</v>
       </c>
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -8094,13 +8024,13 @@
       <c r="N88" s="5">
         <v>4.2</v>
       </c>
-      <c r="O88" s="20">
+      <c r="O88" s="19">
         <v>4.2</v>
       </c>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -8142,13 +8072,13 @@
       <c r="N89" s="5">
         <v>5.9</v>
       </c>
-      <c r="O89" s="20">
+      <c r="O89" s="19">
         <v>5.4</v>
       </c>
       <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -8190,13 +8120,13 @@
       <c r="N90" s="5">
         <v>7.5</v>
       </c>
-      <c r="O90" s="20">
+      <c r="O90" s="19">
         <v>5.6</v>
       </c>
       <c r="P90" s="1"/>
     </row>
     <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B91" s="10" t="s">
@@ -8238,13 +8168,13 @@
       <c r="N91" s="5">
         <v>15.3</v>
       </c>
-      <c r="O91" s="20">
+      <c r="O91" s="19">
         <v>10.8</v>
       </c>
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -8286,13 +8216,13 @@
       <c r="N92" s="5">
         <v>23.3</v>
       </c>
-      <c r="O92" s="20">
+      <c r="O92" s="19">
         <v>15.5</v>
       </c>
       <c r="P92" s="1"/>
     </row>
     <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -8334,13 +8264,13 @@
       <c r="N93" s="5">
         <v>29.9</v>
       </c>
-      <c r="O93" s="20">
+      <c r="O93" s="19">
         <v>18.899999999999999</v>
       </c>
       <c r="P93" s="1"/>
     </row>
     <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -8382,13 +8312,13 @@
       <c r="N94" s="5">
         <v>35.5</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O94" s="19">
         <v>21.2</v>
       </c>
       <c r="P94" s="1"/>
     </row>
     <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -8430,13 +8360,13 @@
       <c r="N95" s="5">
         <v>36.299999999999997</v>
       </c>
-      <c r="O95" s="20">
+      <c r="O95" s="19">
         <v>20.7</v>
       </c>
       <c r="P95" s="1"/>
     </row>
     <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="10">
@@ -8478,13 +8408,13 @@
       <c r="N96" s="5">
         <v>-15.6</v>
       </c>
-      <c r="O96" s="20">
+      <c r="O96" s="19">
         <v>-30.9</v>
       </c>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B97" s="10">
@@ -8526,13 +8456,13 @@
       <c r="N97" s="5">
         <v>-15.1</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="19">
         <v>-44.8</v>
       </c>
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="10">
@@ -8574,13 +8504,13 @@
       <c r="N98" s="5">
         <v>-14.7</v>
       </c>
-      <c r="O98" s="20">
+      <c r="O98" s="19">
         <v>-25.1</v>
       </c>
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="10">
@@ -8622,13 +8552,13 @@
       <c r="N99" s="5">
         <v>-13.1</v>
       </c>
-      <c r="O99" s="20">
+      <c r="O99" s="19">
         <v>-31.1</v>
       </c>
       <c r="P99" s="1"/>
     </row>
     <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B100" s="10">
@@ -8670,13 +8600,13 @@
       <c r="N100" s="5">
         <v>-12.1</v>
       </c>
-      <c r="O100" s="20">
+      <c r="O100" s="19">
         <v>-18.2</v>
       </c>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B101" s="10">
@@ -8718,13 +8648,13 @@
       <c r="N101" s="5">
         <v>-11.8</v>
       </c>
-      <c r="O101" s="20">
+      <c r="O101" s="19">
         <v>-134.30000000000001</v>
       </c>
       <c r="P101" s="1"/>
     </row>
     <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B102" s="10">
@@ -8766,13 +8696,13 @@
       <c r="N102" s="5">
         <v>-11</v>
       </c>
-      <c r="O102" s="20">
+      <c r="O102" s="19">
         <v>-43.6</v>
       </c>
       <c r="P102" s="1"/>
     </row>
     <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B103" s="10">
@@ -8814,13 +8744,13 @@
       <c r="N103" s="5">
         <v>-6.2</v>
       </c>
-      <c r="O103" s="20">
+      <c r="O103" s="19">
         <v>-8.1999999999999993</v>
       </c>
       <c r="P103" s="1"/>
     </row>
     <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B104" s="10">
@@ -8862,13 +8792,13 @@
       <c r="N104" s="5">
         <v>-5.5</v>
       </c>
-      <c r="O104" s="20">
+      <c r="O104" s="19">
         <v>-31.1</v>
       </c>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B105" s="10">
@@ -8910,13 +8840,13 @@
       <c r="N105" s="5">
         <v>-2.8</v>
       </c>
-      <c r="O105" s="20">
+      <c r="O105" s="19">
         <v>-3.4</v>
       </c>
       <c r="P105" s="1"/>
     </row>
     <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="10">
@@ -8958,13 +8888,13 @@
       <c r="N106" s="5">
         <v>-2.5</v>
       </c>
-      <c r="O106" s="20">
+      <c r="O106" s="19">
         <v>-303.10000000000002</v>
       </c>
       <c r="P106" s="1"/>
     </row>
     <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B107" s="10">
@@ -9006,13 +8936,13 @@
       <c r="N107" s="5">
         <v>-0.5</v>
       </c>
-      <c r="O107" s="20">
+      <c r="O107" s="19">
         <v>-0.6</v>
       </c>
       <c r="P107" s="1"/>
     </row>
     <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B108" s="10">
@@ -9054,13 +8984,13 @@
       <c r="N108" s="5">
         <v>5.5</v>
       </c>
-      <c r="O108" s="20">
+      <c r="O108" s="19">
         <v>5.4</v>
       </c>
       <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="10">
@@ -9102,13 +9032,13 @@
       <c r="N109" s="5">
         <v>7.8</v>
       </c>
-      <c r="O109" s="20">
+      <c r="O109" s="19">
         <v>6.6</v>
       </c>
       <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="10">
@@ -9150,13 +9080,13 @@
       <c r="N110" s="5">
         <v>8.6</v>
       </c>
-      <c r="O110" s="20">
+      <c r="O110" s="19">
         <v>6.9</v>
       </c>
       <c r="P110" s="1"/>
     </row>
     <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="10">
@@ -9198,13 +9128,13 @@
       <c r="N111" s="5">
         <v>11.1</v>
       </c>
-      <c r="O111" s="20">
+      <c r="O111" s="19">
         <v>10.199999999999999</v>
       </c>
       <c r="P111" s="1"/>
     </row>
     <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B112" s="10">
@@ -9246,13 +9176,13 @@
       <c r="N112" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="O112" s="20">
+      <c r="O112" s="19">
         <v>12.3</v>
       </c>
       <c r="P112" s="1"/>
     </row>
     <row r="113" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="10">
@@ -9294,13 +9224,13 @@
       <c r="N113" s="5">
         <v>25.2</v>
       </c>
-      <c r="O113" s="20">
+      <c r="O113" s="19">
         <v>17.7</v>
       </c>
       <c r="P113" s="1"/>
     </row>
     <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="10">
@@ -9342,13 +9272,13 @@
       <c r="N114" s="5">
         <v>35</v>
       </c>
-      <c r="O114" s="20">
+      <c r="O114" s="19">
         <v>23.3</v>
       </c>
       <c r="P114" s="1"/>
     </row>
     <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="10">
@@ -9390,13 +9320,13 @@
       <c r="N115" s="5">
         <v>44.3</v>
       </c>
-      <c r="O115" s="20">
+      <c r="O115" s="19">
         <v>28</v>
       </c>
       <c r="P115" s="1"/>
     </row>
     <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="10">
@@ -9438,13 +9368,13 @@
       <c r="N116" s="5">
         <v>46.9</v>
       </c>
-      <c r="O116" s="20">
+      <c r="O116" s="19">
         <v>20.8</v>
       </c>
       <c r="P116" s="1"/>
     </row>
     <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="10">
@@ -9486,13 +9416,13 @@
       <c r="N117" s="5">
         <v>47.1</v>
       </c>
-      <c r="O117" s="20">
+      <c r="O117" s="19">
         <v>20.2</v>
       </c>
       <c r="P117" s="1"/>
     </row>
     <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10">
@@ -9534,13 +9464,13 @@
       <c r="N118" s="5">
         <v>49</v>
       </c>
-      <c r="O118" s="20">
+      <c r="O118" s="19">
         <v>29.3</v>
       </c>
       <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B119" s="10">
@@ -9582,13 +9512,13 @@
       <c r="N119" s="5">
         <v>51.6</v>
       </c>
-      <c r="O119" s="20">
+      <c r="O119" s="19">
         <v>29.4</v>
       </c>
       <c r="P119" s="1"/>
     </row>
     <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B120" s="10">
@@ -9630,13 +9560,13 @@
       <c r="N120" s="5">
         <v>53.4</v>
       </c>
-      <c r="O120" s="20">
+      <c r="O120" s="19">
         <v>21.3</v>
       </c>
       <c r="P120" s="1"/>
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B121" s="10">
@@ -9678,13 +9608,13 @@
       <c r="N121" s="5">
         <v>54.2</v>
       </c>
-      <c r="O121" s="20">
+      <c r="O121" s="19">
         <v>22.4</v>
       </c>
       <c r="P121" s="1"/>
     </row>
     <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B122" s="10">
@@ -9726,13 +9656,13 @@
       <c r="N122" s="5">
         <v>58.1</v>
       </c>
-      <c r="O122" s="20">
+      <c r="O122" s="19">
         <v>19.899999999999999</v>
       </c>
       <c r="P122" s="1"/>
     </row>
     <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B123" s="10">
@@ -9774,13 +9704,13 @@
       <c r="N123" s="5">
         <v>60</v>
       </c>
-      <c r="O123" s="20">
+      <c r="O123" s="19">
         <v>32.6</v>
       </c>
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B124" s="10">
@@ -9822,13 +9752,13 @@
       <c r="N124" s="5">
         <v>62.4</v>
       </c>
-      <c r="O124" s="20">
+      <c r="O124" s="19">
         <v>20.2</v>
       </c>
       <c r="P124" s="1"/>
     </row>
     <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B125" s="10">
@@ -9870,13 +9800,13 @@
       <c r="N125" s="5">
         <v>64.099999999999994</v>
       </c>
-      <c r="O125" s="20">
+      <c r="O125" s="19">
         <v>22.5</v>
       </c>
       <c r="P125" s="1"/>
     </row>
     <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="10">
@@ -9918,13 +9848,13 @@
       <c r="N126" s="5">
         <v>65.400000000000006</v>
       </c>
-      <c r="O126" s="20">
+      <c r="O126" s="19">
         <v>30.1</v>
       </c>
       <c r="P126" s="1"/>
     </row>
     <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B127" s="10">
@@ -9966,13 +9896,13 @@
       <c r="N127" s="5">
         <v>66.2</v>
       </c>
-      <c r="O127" s="20">
+      <c r="O127" s="19">
         <v>25.5</v>
       </c>
       <c r="P127" s="1"/>
     </row>
     <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B128" s="10">
@@ -10014,13 +9944,13 @@
       <c r="N128" s="5">
         <v>66.2</v>
       </c>
-      <c r="O128" s="20">
+      <c r="O128" s="19">
         <v>24.8</v>
       </c>
       <c r="P128" s="1"/>
     </row>
     <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B129" s="10">
@@ -10062,13 +9992,13 @@
       <c r="N129" s="5">
         <v>68.5</v>
       </c>
-      <c r="O129" s="20">
+      <c r="O129" s="19">
         <v>22.8</v>
       </c>
       <c r="P129" s="1"/>
     </row>
     <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B130" s="10">
@@ -10110,13 +10040,13 @@
       <c r="N130" s="5">
         <v>70</v>
       </c>
-      <c r="O130" s="20">
+      <c r="O130" s="19">
         <v>25.5</v>
       </c>
       <c r="P130" s="1"/>
     </row>
     <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B131" s="10">
@@ -10158,13 +10088,13 @@
       <c r="N131" s="5">
         <v>72.099999999999994</v>
       </c>
-      <c r="O131" s="20">
+      <c r="O131" s="19">
         <v>37.5</v>
       </c>
       <c r="P131" s="1"/>
     </row>
     <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B132" s="10">
@@ -10206,13 +10136,13 @@
       <c r="N132" s="5">
         <v>87.6</v>
       </c>
-      <c r="O132" s="20">
+      <c r="O132" s="19">
         <v>43.7</v>
       </c>
       <c r="P132" s="1"/>
     </row>
     <row r="133" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B133" s="10">
@@ -10254,13 +10184,13 @@
       <c r="N133" s="5">
         <v>93.2</v>
       </c>
-      <c r="O133" s="20">
+      <c r="O133" s="19">
         <v>44.7</v>
       </c>
       <c r="P133" s="1"/>
     </row>
     <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B134" s="10">
@@ -10302,13 +10232,13 @@
       <c r="N134" s="5">
         <v>-13.6</v>
       </c>
-      <c r="O134" s="20">
+      <c r="O134" s="19">
         <v>-27</v>
       </c>
       <c r="P134" s="1"/>
     </row>
     <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B135" s="10">
@@ -10350,13 +10280,13 @@
       <c r="N135" s="5">
         <v>-12.8</v>
       </c>
-      <c r="O135" s="20">
+      <c r="O135" s="19">
         <v>-38.4</v>
       </c>
       <c r="P135" s="1"/>
     </row>
     <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B136" s="10">
@@ -10398,13 +10328,13 @@
       <c r="N136" s="5">
         <v>-12.7</v>
       </c>
-      <c r="O136" s="20">
+      <c r="O136" s="19">
         <v>-21.8</v>
       </c>
       <c r="P136" s="1"/>
     </row>
     <row r="137" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B137" s="10">
@@ -10446,13 +10376,13 @@
       <c r="N137" s="5">
         <v>-10.4</v>
       </c>
-      <c r="O137" s="20">
+      <c r="O137" s="19">
         <v>-118.8</v>
       </c>
       <c r="P137" s="1"/>
     </row>
     <row r="138" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B138" s="10">
@@ -10494,13 +10424,13 @@
       <c r="N138" s="5">
         <v>-10.3</v>
       </c>
-      <c r="O138" s="20">
+      <c r="O138" s="19">
         <v>-24.8</v>
       </c>
       <c r="P138" s="1"/>
     </row>
     <row r="139" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B139" s="10">
@@ -10542,13 +10472,13 @@
       <c r="N139" s="5">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="O139" s="20">
+      <c r="O139" s="19">
         <v>-13.9</v>
       </c>
       <c r="P139" s="1"/>
     </row>
     <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B140" s="10">
@@ -10590,13 +10520,13 @@
       <c r="N140" s="5">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="O140" s="20">
+      <c r="O140" s="19">
         <v>-35.5</v>
       </c>
       <c r="P140" s="1"/>
     </row>
     <row r="141" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B141" s="10">
@@ -10638,13 +10568,13 @@
       <c r="N141" s="5">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="O141" s="20">
+      <c r="O141" s="19">
         <v>-25.5</v>
       </c>
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B142" s="10">
@@ -10686,13 +10616,13 @@
       <c r="N142" s="5">
         <v>-4.3</v>
       </c>
-      <c r="O142" s="20">
+      <c r="O142" s="19">
         <v>-5.7</v>
       </c>
       <c r="P142" s="1"/>
     </row>
     <row r="143" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B143" s="10">
@@ -10734,13 +10664,13 @@
       <c r="N143" s="5">
         <v>-1.5</v>
       </c>
-      <c r="O143" s="20">
+      <c r="O143" s="19">
         <v>-1.8</v>
       </c>
       <c r="P143" s="1"/>
     </row>
     <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B144" s="10">
@@ -10782,13 +10712,13 @@
       <c r="N144" s="5">
         <v>-0.2</v>
       </c>
-      <c r="O144" s="20">
+      <c r="O144" s="19">
         <v>-0.3</v>
       </c>
       <c r="P144" s="1"/>
     </row>
     <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="10">
@@ -10830,13 +10760,13 @@
       <c r="N145" s="5">
         <v>3.2</v>
       </c>
-      <c r="O145" s="20">
+      <c r="O145" s="19">
         <v>2.5</v>
       </c>
       <c r="P145" s="1"/>
     </row>
     <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B146" s="10">
@@ -10878,13 +10808,13 @@
       <c r="N146" s="5">
         <v>3.4</v>
       </c>
-      <c r="O146" s="20">
+      <c r="O146" s="19">
         <v>2.9</v>
       </c>
       <c r="P146" s="1"/>
     </row>
     <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B147" s="10">
@@ -10926,13 +10856,13 @@
       <c r="N147" s="5">
         <v>5.6</v>
       </c>
-      <c r="O147" s="20">
+      <c r="O147" s="19">
         <v>5.5</v>
       </c>
       <c r="P147" s="1"/>
     </row>
     <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B148" s="10">
@@ -10974,13 +10904,13 @@
       <c r="N148" s="5">
         <v>7.4</v>
       </c>
-      <c r="O148" s="20">
+      <c r="O148" s="19">
         <v>6.9</v>
       </c>
       <c r="P148" s="1"/>
     </row>
     <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B149" s="10">
@@ -11022,13 +10952,13 @@
       <c r="N149" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O149" s="20">
+      <c r="O149" s="19">
         <v>6.6</v>
       </c>
       <c r="P149" s="1"/>
     </row>
     <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B150" s="10">
@@ -11070,13 +11000,13 @@
       <c r="N150" s="5">
         <v>30.2</v>
       </c>
-      <c r="O150" s="20">
+      <c r="O150" s="19">
         <v>13.4</v>
       </c>
       <c r="P150" s="1"/>
     </row>
     <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B151" s="10">
@@ -11118,13 +11048,13 @@
       <c r="N151" s="5">
         <v>-18.5</v>
       </c>
-      <c r="O151" s="20">
+      <c r="O151" s="19">
         <v>-36.700000000000003</v>
       </c>
       <c r="P151" s="1"/>
     </row>
     <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B152" s="10">
@@ -11166,13 +11096,13 @@
       <c r="N152" s="5">
         <v>-16.899999999999999</v>
       </c>
-      <c r="O152" s="20">
+      <c r="O152" s="19">
         <v>-40.799999999999997</v>
       </c>
       <c r="P152" s="1"/>
     </row>
     <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B153" s="10">
@@ -11214,13 +11144,13 @@
       <c r="N153" s="5">
         <v>-15.9</v>
       </c>
-      <c r="O153" s="20">
+      <c r="O153" s="19">
         <v>-47.5</v>
       </c>
       <c r="P153" s="1"/>
     </row>
     <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B154" s="10">
@@ -11262,13 +11192,13 @@
       <c r="N154" s="5">
         <v>-14.3</v>
       </c>
-      <c r="O154" s="20">
+      <c r="O154" s="19">
         <v>-24.5</v>
       </c>
       <c r="P154" s="1"/>
     </row>
     <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B155" s="10">
@@ -11310,13 +11240,13 @@
       <c r="N155" s="5">
         <v>-12</v>
       </c>
-      <c r="O155" s="20">
+      <c r="O155" s="19">
         <v>-18.2</v>
       </c>
       <c r="P155" s="1"/>
     </row>
     <row r="156" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B156" s="10">
@@ -11358,13 +11288,13 @@
       <c r="N156" s="5">
         <v>-11.4</v>
       </c>
-      <c r="O156" s="20">
+      <c r="O156" s="19">
         <v>-45.8</v>
       </c>
       <c r="P156" s="1"/>
     </row>
     <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B157" s="10">
@@ -11406,13 +11336,13 @@
       <c r="N157" s="5">
         <v>-10.5</v>
       </c>
-      <c r="O157" s="20">
+      <c r="O157" s="19">
         <v>-123.1</v>
       </c>
       <c r="P157" s="1"/>
     </row>
     <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
+      <c r="A158" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B158" s="10">
@@ -11454,13 +11384,13 @@
       <c r="N158" s="5">
         <v>-7.3</v>
       </c>
-      <c r="O158" s="20">
+      <c r="O158" s="19">
         <v>-42.2</v>
       </c>
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B159" s="10">
@@ -11502,13 +11432,13 @@
       <c r="N159" s="5">
         <v>-3.3</v>
       </c>
-      <c r="O159" s="20">
+      <c r="O159" s="19">
         <v>-4.4000000000000004</v>
       </c>
       <c r="P159" s="1"/>
     </row>
     <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B160" s="10">
@@ -11550,13 +11480,13 @@
       <c r="N160" s="5">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="O160" s="20">
+      <c r="O160" s="19">
         <v>-2.6</v>
       </c>
       <c r="P160" s="1"/>
     </row>
     <row r="161" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B161" s="10">
@@ -11598,13 +11528,13 @@
       <c r="N161" s="5">
         <v>0.7</v>
       </c>
-      <c r="O161" s="20">
+      <c r="O161" s="19">
         <v>0.8</v>
       </c>
       <c r="P161" s="1"/>
     </row>
     <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B162" s="10">
@@ -11646,13 +11576,13 @@
       <c r="N162" s="5">
         <v>9</v>
       </c>
-      <c r="O162" s="20">
+      <c r="O162" s="19">
         <v>9</v>
       </c>
       <c r="P162" s="1"/>
     </row>
     <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B163" s="10">
@@ -11694,13 +11624,13 @@
       <c r="N163" s="5">
         <v>10.3</v>
       </c>
-      <c r="O163" s="20">
+      <c r="O163" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="P163" s="1"/>
     </row>
     <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B164" s="10">
@@ -11742,13 +11672,13 @@
       <c r="N164" s="5">
         <v>11.9</v>
       </c>
-      <c r="O164" s="20">
+      <c r="O164" s="19">
         <v>9.6</v>
       </c>
       <c r="P164" s="1"/>
     </row>
     <row r="165" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
+      <c r="A165" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B165" s="10">
@@ -11790,13 +11720,13 @@
       <c r="N165" s="5">
         <v>12.9</v>
       </c>
-      <c r="O165" s="20">
+      <c r="O165" s="19">
         <v>11.9</v>
       </c>
       <c r="P165" s="1"/>
     </row>
     <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="10">
@@ -11838,13 +11768,13 @@
       <c r="N166" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="O166" s="20">
+      <c r="O166" s="19">
         <v>12.6</v>
       </c>
       <c r="P166" s="1"/>
     </row>
     <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B167" s="10">
@@ -11886,13 +11816,13 @@
       <c r="N167" s="5">
         <v>22.5</v>
       </c>
-      <c r="O167" s="20">
+      <c r="O167" s="19">
         <v>15.9</v>
       </c>
       <c r="P167" s="1"/>
     </row>
     <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B168" s="10">
@@ -11934,13 +11864,13 @@
       <c r="N168" s="5">
         <v>30.7</v>
       </c>
-      <c r="O168" s="20">
+      <c r="O168" s="19">
         <v>13.6</v>
       </c>
       <c r="P168" s="1"/>
     </row>
     <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B169" s="10">
@@ -11982,13 +11912,13 @@
       <c r="N169" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="O169" s="20">
+      <c r="O169" s="19">
         <v>21.8</v>
       </c>
       <c r="P169" s="1"/>
     </row>
     <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="10">
@@ -12030,13 +11960,13 @@
       <c r="N170" s="5">
         <v>36.6</v>
       </c>
-      <c r="O170" s="20">
+      <c r="O170" s="19">
         <v>15.6</v>
       </c>
       <c r="P170" s="1"/>
     </row>
     <row r="171" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B171" s="10">
@@ -12078,13 +12008,13 @@
       <c r="N171" s="5">
         <v>40.200000000000003</v>
       </c>
-      <c r="O171" s="20">
+      <c r="O171" s="19">
         <v>16.600000000000001</v>
       </c>
       <c r="P171" s="1"/>
     </row>
     <row r="172" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="19" t="s">
+      <c r="A172" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B172" s="10">
@@ -12126,13 +12056,13 @@
       <c r="N172" s="5">
         <v>40.299999999999997</v>
       </c>
-      <c r="O172" s="20">
+      <c r="O172" s="19">
         <v>16.100000000000001</v>
       </c>
       <c r="P172" s="1"/>
     </row>
     <row r="173" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10">
@@ -12174,13 +12104,13 @@
       <c r="N173" s="5">
         <v>43.4</v>
       </c>
-      <c r="O173" s="20">
+      <c r="O173" s="19">
         <v>26</v>
       </c>
       <c r="P173" s="1"/>
     </row>
     <row r="174" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B174" s="10">
@@ -12222,13 +12152,13 @@
       <c r="N174" s="5">
         <v>44.4</v>
       </c>
-      <c r="O174" s="20">
+      <c r="O174" s="19">
         <v>28.1</v>
       </c>
       <c r="P174" s="1"/>
     </row>
     <row r="175" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="19" t="s">
+      <c r="A175" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B175" s="10">
@@ -12270,13 +12200,13 @@
       <c r="N175" s="5">
         <v>44.5</v>
       </c>
-      <c r="O175" s="20">
+      <c r="O175" s="19">
         <v>20.5</v>
       </c>
       <c r="P175" s="1"/>
     </row>
     <row r="176" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B176" s="10">
@@ -12318,13 +12248,13 @@
       <c r="N176" s="5">
         <v>45.7</v>
       </c>
-      <c r="O176" s="20">
+      <c r="O176" s="19">
         <v>26</v>
       </c>
       <c r="P176" s="1"/>
     </row>
     <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B177" s="10">
@@ -12366,13 +12296,13 @@
       <c r="N177" s="5">
         <v>48.6</v>
       </c>
-      <c r="O177" s="20">
+      <c r="O177" s="19">
         <v>18.7</v>
       </c>
       <c r="P177" s="1"/>
     </row>
     <row r="178" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="19" t="s">
+      <c r="A178" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B178" s="10">
@@ -12414,13 +12344,13 @@
       <c r="N178" s="5">
         <v>49.2</v>
       </c>
-      <c r="O178" s="20">
+      <c r="O178" s="19">
         <v>26.7</v>
       </c>
       <c r="P178" s="1"/>
     </row>
     <row r="179" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B179" s="10">
@@ -12462,13 +12392,13 @@
       <c r="N179" s="5">
         <v>50.5</v>
       </c>
-      <c r="O179" s="20">
+      <c r="O179" s="19">
         <v>18</v>
       </c>
       <c r="P179" s="1"/>
     </row>
     <row r="180" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="19" t="s">
+      <c r="A180" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B180" s="10">
@@ -12510,13 +12440,13 @@
       <c r="N180" s="5">
         <v>53.7</v>
       </c>
-      <c r="O180" s="20">
+      <c r="O180" s="19">
         <v>20.100000000000001</v>
       </c>
       <c r="P180" s="1"/>
     </row>
     <row r="181" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="19" t="s">
+      <c r="A181" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B181" s="10">
@@ -12558,13 +12488,13 @@
       <c r="N181" s="5">
         <v>55.6</v>
       </c>
-      <c r="O181" s="20">
+      <c r="O181" s="19">
         <v>28.9</v>
       </c>
       <c r="P181" s="1"/>
     </row>
     <row r="182" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="19" t="s">
+      <c r="A182" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B182" s="10">
@@ -12606,13 +12536,13 @@
       <c r="N182" s="5">
         <v>67.8</v>
       </c>
-      <c r="O182" s="20">
+      <c r="O182" s="19">
         <v>32.6</v>
       </c>
       <c r="P182" s="1"/>
     </row>
     <row r="183" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="19" t="s">
+      <c r="A183" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B183" s="10">
@@ -12654,13 +12584,13 @@
       <c r="N183" s="5">
         <v>69.5</v>
       </c>
-      <c r="O183" s="20">
+      <c r="O183" s="19">
         <v>34.700000000000003</v>
       </c>
       <c r="P183" s="1"/>
     </row>
     <row r="184" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="19" t="s">
+      <c r="A184" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B184" s="10">
@@ -12702,7 +12632,7 @@
       <c r="N184" s="5">
         <v>50.5</v>
       </c>
-      <c r="O184" s="20">
+      <c r="O184" s="19">
         <v>18</v>
       </c>
       <c r="P184" s="1"/>
@@ -12744,8 +12674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A3258-AA50-40F3-BAD2-847D250A9C5F}">
   <dimension ref="B2:F195"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12757,2321 +12687,2321 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="51">
         <v>-2000</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="69">
         <v>44172</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <v>-2000</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="70">
         <v>44203</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="62">
         <f>XIRR(C3:C21,D3:D21)</f>
         <v>-1.3069321215152741E-2</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <v>-2000</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="71">
         <v>44236</v>
       </c>
-      <c r="E5" s="67"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="49">
         <v>-2000</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="71">
         <v>44263</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="49">
         <v>-2000</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="70">
         <v>44293</v>
       </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="49">
         <v>-2000</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="70">
         <v>44323</v>
       </c>
-      <c r="E8" s="67"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="49">
         <v>-2000</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="71">
         <v>44355</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="49">
         <v>-2000</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="70">
         <v>44384</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="49">
         <v>-2000</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="71">
         <v>44417</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="49">
         <v>-1999</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="70">
         <v>44446</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="49">
         <v>-2000</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="71">
         <v>44476</v>
       </c>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="2:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="49">
         <v>-1999</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="70">
         <v>44508</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="49">
         <v>-2000</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="70">
         <v>44537</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="49">
         <v>-2000</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="70">
         <v>44568</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="49">
         <v>-2000</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="71">
         <v>44599</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="49">
         <v>-2000</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="70">
         <v>44627</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="49">
         <v>-2000</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="71">
         <v>44658</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="49">
         <v>-2000</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="71">
         <v>44690</v>
       </c>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="49">
         <f>34.45*1034.08</f>
         <v>35624.055999999997</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="71">
         <v>44721</v>
       </c>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="2:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="67"/>
+      <c r="E21" s="63"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="49">
         <v>34998</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="59">
         <v>44650</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="62">
         <f>(C24-C23)/C23</f>
         <v>-0.13648151322932744</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="52">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="49">
         <v>30221.42</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="59">
         <v>44721</v>
       </c>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="2:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="67"/>
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="63"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="49">
         <v>-2000</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="60">
         <v>44505</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="64">
         <f>XIRR(C26:C61,D26:D61)</f>
         <v>0.19093142151832582</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="49">
         <v>-2000</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="59">
         <v>44566</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="49">
         <v>-2000</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="60">
         <v>44474</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="63"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="49">
         <v>-2000</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="59">
         <v>44656</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="63"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="49">
         <v>-2000</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="60">
         <v>44444</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="63"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="49">
         <v>-2000</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="59">
         <v>44597</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="49">
         <v>-2000</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="60">
         <v>44535</v>
       </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="49">
         <v>-2000</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="59">
         <v>44413</v>
       </c>
-      <c r="E33" s="67"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="49">
         <v>-2000</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="60">
         <v>44686</v>
       </c>
-      <c r="E34" s="67"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="49">
         <v>-2000</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="59">
         <v>44382</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="49">
         <v>-2000</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="60">
         <v>44625</v>
       </c>
-      <c r="E36" s="67"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="49">
         <v>-2000</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="59">
         <v>44352</v>
       </c>
-      <c r="E37" s="67"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="49">
         <v>-2000</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="60">
         <v>44260</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="49">
         <v>-1428</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="59">
         <v>43651</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="49">
         <v>-2000</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="60">
         <v>44321</v>
       </c>
-      <c r="E40" s="67"/>
+      <c r="E40" s="63"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="49">
         <v>-2000</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="59">
         <v>44232</v>
       </c>
-      <c r="E41" s="67"/>
+      <c r="E41" s="63"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="49">
         <v>-2000</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="60">
         <v>44291</v>
       </c>
-      <c r="E42" s="67"/>
+      <c r="E42" s="63"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="49">
         <v>-2000</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="59">
         <v>44201</v>
       </c>
-      <c r="E43" s="67"/>
+      <c r="E43" s="63"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="49">
         <v>-2000</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="60">
         <v>44172</v>
       </c>
-      <c r="E44" s="67"/>
+      <c r="E44" s="63"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="49">
         <v>-2000</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="59">
         <v>44140</v>
       </c>
-      <c r="E45" s="67"/>
+      <c r="E45" s="63"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="49">
         <v>-2000</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="60">
         <v>43866</v>
       </c>
-      <c r="E46" s="67"/>
+      <c r="E46" s="63"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="49">
         <v>-2000</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="59">
         <v>44109</v>
       </c>
-      <c r="E47" s="67"/>
+      <c r="E47" s="63"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="49">
         <v>-2000</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="60">
         <v>44081</v>
       </c>
-      <c r="E48" s="67"/>
+      <c r="E48" s="63"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="49">
         <v>-2000</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="59">
         <v>43895</v>
       </c>
-      <c r="E49" s="67"/>
+      <c r="E49" s="63"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="49">
         <v>-2000</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D50" s="60">
         <v>43836</v>
       </c>
-      <c r="E50" s="67"/>
+      <c r="E50" s="63"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="49">
         <v>-2000</v>
       </c>
-      <c r="D51" s="63">
+      <c r="D51" s="59">
         <v>43804</v>
       </c>
-      <c r="E51" s="67"/>
+      <c r="E51" s="63"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="49">
         <v>-2000</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="60">
         <v>44048</v>
       </c>
-      <c r="E52" s="67"/>
+      <c r="E52" s="63"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="49">
         <v>-2000</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="59">
         <v>43774</v>
       </c>
-      <c r="E53" s="67"/>
+      <c r="E53" s="63"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="49">
         <v>-2000</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D54" s="60">
         <v>44018</v>
       </c>
-      <c r="E54" s="67"/>
+      <c r="E54" s="63"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="52">
+      <c r="C55" s="49">
         <v>-2000</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="59">
         <v>43745</v>
       </c>
-      <c r="E55" s="69"/>
+      <c r="E55" s="65"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="49">
         <v>-2000</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="60">
         <v>43987</v>
       </c>
-      <c r="E56" s="67"/>
+      <c r="E56" s="63"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="52">
+      <c r="C57" s="49">
         <v>-2000</v>
       </c>
-      <c r="D57" s="63">
+      <c r="D57" s="59">
         <v>43682</v>
       </c>
-      <c r="E57" s="67"/>
+      <c r="E57" s="63"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C58" s="49">
         <v>-2000</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="60">
         <v>43713</v>
       </c>
-      <c r="E58" s="67"/>
+      <c r="E58" s="63"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="49">
         <v>-2000</v>
       </c>
-      <c r="D59" s="63">
+      <c r="D59" s="59">
         <v>43956</v>
       </c>
-      <c r="E59" s="67"/>
+      <c r="E59" s="63"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="49">
         <v>-2000</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="60">
         <v>43928</v>
       </c>
-      <c r="E60" s="67"/>
-    </row>
-    <row r="61" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="52">
+      <c r="E60" s="63"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="48"/>
+      <c r="C61" s="49">
         <f>612.97*148.45</f>
         <v>90995.396500000003</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="60">
         <v>44717</v>
       </c>
-      <c r="E61" s="67"/>
+      <c r="E61" s="63"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="49">
         <v>-1500</v>
       </c>
-      <c r="D62" s="63">
+      <c r="D62" s="59">
         <v>44575</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="62">
         <f>XIRR(C62:C101,D62:D101)</f>
         <v>4.1169187426567083E-2</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="52">
+      <c r="C63" s="49">
         <v>-1500</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="60">
         <v>44483</v>
       </c>
-      <c r="E63" s="67"/>
+      <c r="E63" s="63"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="49">
         <v>-1500</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="59">
         <v>44515</v>
       </c>
-      <c r="E64" s="67"/>
+      <c r="E64" s="63"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C65" s="49">
         <v>-1500</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="60">
         <v>44453</v>
       </c>
-      <c r="E65" s="67"/>
+      <c r="E65" s="63"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C66" s="49">
         <v>-1500</v>
       </c>
-      <c r="D66" s="63">
+      <c r="D66" s="59">
         <v>44544</v>
       </c>
-      <c r="E66" s="67"/>
+      <c r="E66" s="63"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="49">
         <v>-1500</v>
       </c>
-      <c r="D67" s="64">
+      <c r="D67" s="60">
         <v>44669</v>
       </c>
-      <c r="E67" s="67"/>
+      <c r="E67" s="63"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="49">
         <v>-1500</v>
       </c>
-      <c r="D68" s="63">
+      <c r="D68" s="59">
         <v>44606</v>
       </c>
-      <c r="E68" s="67"/>
+      <c r="E68" s="63"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="49">
         <v>-1500</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="60">
         <v>44424</v>
       </c>
-      <c r="E69" s="67"/>
+      <c r="E69" s="63"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="52">
+      <c r="C70" s="49">
         <v>-1500</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="59">
         <v>44635</v>
       </c>
-      <c r="E70" s="67"/>
+      <c r="E70" s="63"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="52">
+      <c r="C71" s="49">
         <v>-1500</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D71" s="60">
         <v>44391</v>
       </c>
-      <c r="E71" s="67"/>
+      <c r="E71" s="63"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="49">
         <v>-1500</v>
       </c>
-      <c r="D72" s="63">
+      <c r="D72" s="59">
         <v>44361</v>
       </c>
-      <c r="E72" s="67"/>
+      <c r="E72" s="63"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="49">
         <v>-1500</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="60">
         <v>44243</v>
       </c>
-      <c r="E73" s="67"/>
+      <c r="E73" s="63"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="49">
         <v>-1500</v>
       </c>
-      <c r="D74" s="63">
+      <c r="D74" s="59">
         <v>44270</v>
       </c>
-      <c r="E74" s="67"/>
+      <c r="E74" s="63"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="49">
         <v>-1500</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="60">
         <v>44333</v>
       </c>
-      <c r="E75" s="67"/>
+      <c r="E75" s="63"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="52">
+      <c r="C76" s="49">
         <v>-1500</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="59">
         <v>44301</v>
       </c>
-      <c r="E76" s="67"/>
+      <c r="E76" s="63"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="49">
         <v>-1500</v>
       </c>
-      <c r="D77" s="64">
+      <c r="D77" s="60">
         <v>44210</v>
       </c>
-      <c r="E77" s="67"/>
+      <c r="E77" s="63"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="49">
         <v>-1500</v>
       </c>
-      <c r="D78" s="63">
+      <c r="D78" s="59">
         <v>44179</v>
       </c>
-      <c r="E78" s="67"/>
+      <c r="E78" s="63"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="49">
         <v>-2000</v>
       </c>
-      <c r="D79" s="64">
+      <c r="D79" s="60">
         <v>44572</v>
       </c>
-      <c r="E79" s="67"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="52">
+      <c r="C80" s="49">
         <v>-2000</v>
       </c>
-      <c r="D80" s="63">
+      <c r="D80" s="59">
         <v>44511</v>
       </c>
-      <c r="E80" s="67"/>
+      <c r="E80" s="63"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="49">
         <v>-2000</v>
       </c>
-      <c r="D81" s="64">
+      <c r="D81" s="60">
         <v>44480</v>
       </c>
-      <c r="E81" s="67"/>
+      <c r="E81" s="63"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="52">
+      <c r="C82" s="49">
         <v>-2000</v>
       </c>
-      <c r="D82" s="63">
+      <c r="D82" s="59">
         <v>44662</v>
       </c>
-      <c r="E82" s="67"/>
+      <c r="E82" s="63"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="52">
+      <c r="C83" s="49">
         <v>-2000</v>
       </c>
-      <c r="D83" s="64">
+      <c r="D83" s="60">
         <v>44453</v>
       </c>
-      <c r="E83" s="67"/>
+      <c r="E83" s="63"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="49">
         <v>-2000</v>
       </c>
-      <c r="D84" s="63">
+      <c r="D84" s="59">
         <v>44603</v>
       </c>
-      <c r="E84" s="67"/>
+      <c r="E84" s="63"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="49">
         <v>-2000</v>
       </c>
-      <c r="D85" s="64">
+      <c r="D85" s="60">
         <v>44540</v>
       </c>
-      <c r="E85" s="67"/>
+      <c r="E85" s="63"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="52">
+      <c r="C86" s="49">
         <v>-2000</v>
       </c>
-      <c r="D86" s="63">
+      <c r="D86" s="59">
         <v>44419</v>
       </c>
-      <c r="E86" s="67"/>
+      <c r="E86" s="63"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="49">
         <v>-2000</v>
       </c>
-      <c r="D87" s="64">
+      <c r="D87" s="60">
         <v>44630</v>
       </c>
-      <c r="E87" s="67"/>
+      <c r="E87" s="63"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="49">
         <v>-2000</v>
       </c>
-      <c r="D88" s="63">
+      <c r="D88" s="59">
         <v>44389</v>
       </c>
-      <c r="E88" s="67"/>
+      <c r="E88" s="63"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="52">
+      <c r="C89" s="49">
         <v>-2000</v>
       </c>
-      <c r="D89" s="64">
+      <c r="D89" s="60">
         <v>44357</v>
       </c>
-      <c r="E89" s="67"/>
+      <c r="E89" s="63"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="49">
         <v>-2000</v>
       </c>
-      <c r="D90" s="63">
+      <c r="D90" s="59">
         <v>44691</v>
       </c>
-      <c r="E90" s="67"/>
+      <c r="E90" s="63"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="52">
+      <c r="C91" s="49">
         <v>-2000</v>
       </c>
-      <c r="D91" s="64">
+      <c r="D91" s="60">
         <v>44267</v>
       </c>
-      <c r="E91" s="67"/>
+      <c r="E91" s="63"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="52">
+      <c r="C92" s="49">
         <v>-2000</v>
       </c>
-      <c r="D92" s="63">
+      <c r="D92" s="59">
         <v>44238</v>
       </c>
-      <c r="E92" s="67"/>
+      <c r="E92" s="63"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="49">
         <v>-2000</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="60">
         <v>44328</v>
       </c>
-      <c r="E93" s="67"/>
+      <c r="E93" s="63"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="52">
+      <c r="C94" s="49">
         <v>-2000</v>
       </c>
-      <c r="D94" s="63">
+      <c r="D94" s="59">
         <v>44299</v>
       </c>
-      <c r="E94" s="69"/>
+      <c r="E94" s="65"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="52">
+      <c r="C95" s="49">
         <v>-2000</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="60">
         <v>44207</v>
       </c>
-      <c r="E95" s="67"/>
+      <c r="E95" s="63"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C96" s="49">
         <v>-2000</v>
       </c>
-      <c r="D96" s="63">
+      <c r="D96" s="59">
         <v>44175</v>
       </c>
-      <c r="E96" s="67"/>
+      <c r="E96" s="63"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="52">
+      <c r="C97" s="49">
         <v>-2000</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="60">
         <v>44145</v>
       </c>
-      <c r="E97" s="67"/>
+      <c r="E97" s="63"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="49">
         <v>-2000</v>
       </c>
-      <c r="D98" s="63">
+      <c r="D98" s="59">
         <v>44116</v>
       </c>
-      <c r="E98" s="67"/>
+      <c r="E98" s="63"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="52">
+      <c r="C99" s="49">
         <v>-2000</v>
       </c>
-      <c r="D99" s="64">
+      <c r="D99" s="60">
         <v>44084</v>
       </c>
-      <c r="E99" s="67"/>
+      <c r="E99" s="63"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="52">
+      <c r="C100" s="49">
         <v>-2000</v>
       </c>
-      <c r="D100" s="63">
+      <c r="D100" s="59">
         <v>44053</v>
       </c>
-      <c r="E100" s="67"/>
-    </row>
-    <row r="101" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="50"/>
-      <c r="C101" s="52">
+      <c r="E100" s="63"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="47"/>
+      <c r="C101" s="49">
         <f>48.634*1482.3</f>
         <v>72090.178199999995</v>
       </c>
-      <c r="D101" s="63">
+      <c r="D101" s="59">
         <v>44721</v>
       </c>
-      <c r="E101" s="67"/>
+      <c r="E101" s="63"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="49">
         <v>-2000</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="60">
         <v>44510</v>
       </c>
-      <c r="E102" s="70">
+      <c r="E102" s="66">
         <f>XIRR(C102:C140,D102:D140)</f>
         <v>0.19767104983329775</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="49">
         <v>-2000</v>
       </c>
-      <c r="D103" s="63">
+      <c r="D103" s="59">
         <v>44571</v>
       </c>
-      <c r="E103" s="67"/>
+      <c r="E103" s="63"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="52">
+      <c r="C104" s="49">
         <v>-2000</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="60">
         <v>44480</v>
       </c>
-      <c r="E104" s="67"/>
+      <c r="E104" s="63"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="52">
+      <c r="C105" s="49">
         <v>-2000</v>
       </c>
-      <c r="D105" s="63">
+      <c r="D105" s="59">
         <v>44540</v>
       </c>
-      <c r="E105" s="67"/>
+      <c r="E105" s="63"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="52">
+      <c r="C106" s="49">
         <v>-2000</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="60">
         <v>44452</v>
       </c>
-      <c r="E106" s="67"/>
+      <c r="E106" s="63"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="52">
+      <c r="C107" s="49">
         <v>-2000</v>
       </c>
-      <c r="D107" s="63">
+      <c r="D107" s="59">
         <v>44662</v>
       </c>
-      <c r="E107" s="67"/>
+      <c r="E107" s="63"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="52">
+      <c r="C108" s="49">
         <v>-2000</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="60">
         <v>44602</v>
       </c>
-      <c r="E108" s="67"/>
+      <c r="E108" s="63"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="49">
         <v>-2000</v>
       </c>
-      <c r="D109" s="63">
+      <c r="D109" s="59">
         <v>44418</v>
       </c>
-      <c r="E109" s="67"/>
+      <c r="E109" s="63"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="52">
+      <c r="C110" s="49">
         <v>-2000</v>
       </c>
-      <c r="D110" s="64">
+      <c r="D110" s="60">
         <v>44630</v>
       </c>
-      <c r="E110" s="67"/>
+      <c r="E110" s="63"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="52">
+      <c r="C111" s="49">
         <v>-2000</v>
       </c>
-      <c r="D111" s="63">
+      <c r="D111" s="59">
         <v>44389</v>
       </c>
-      <c r="E111" s="67"/>
+      <c r="E111" s="63"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="52">
+      <c r="C112" s="49">
         <v>-2000</v>
       </c>
-      <c r="D112" s="64">
+      <c r="D112" s="60">
         <v>44691</v>
       </c>
-      <c r="E112" s="67"/>
+      <c r="E112" s="63"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="52">
+      <c r="C113" s="49">
         <v>-2000</v>
       </c>
-      <c r="D113" s="63">
+      <c r="D113" s="59">
         <v>44357</v>
       </c>
-      <c r="E113" s="67"/>
+      <c r="E113" s="63"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="52">
+      <c r="C114" s="49">
         <v>-2000</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="60">
         <v>44327</v>
       </c>
-      <c r="E114" s="67"/>
+      <c r="E114" s="63"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="52">
+      <c r="C115" s="49">
         <v>-2000</v>
       </c>
-      <c r="D115" s="63">
+      <c r="D115" s="59">
         <v>44265</v>
       </c>
-      <c r="E115" s="67"/>
+      <c r="E115" s="63"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="52">
+      <c r="C116" s="49">
         <v>-2000</v>
       </c>
-      <c r="D116" s="64">
+      <c r="D116" s="60">
         <v>44237</v>
       </c>
-      <c r="E116" s="67"/>
+      <c r="E116" s="63"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="52">
+      <c r="C117" s="49">
         <v>-2000</v>
       </c>
-      <c r="D117" s="63">
+      <c r="D117" s="59">
         <v>44298</v>
       </c>
-      <c r="E117" s="67"/>
+      <c r="E117" s="63"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="52">
+      <c r="C118" s="49">
         <v>-2000</v>
       </c>
-      <c r="D118" s="64">
+      <c r="D118" s="60">
         <v>44207</v>
       </c>
-      <c r="E118" s="67"/>
+      <c r="E118" s="63"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="52">
+      <c r="C119" s="49">
         <v>-2000</v>
       </c>
-      <c r="D119" s="63">
+      <c r="D119" s="59">
         <v>44175</v>
       </c>
-      <c r="E119" s="67"/>
+      <c r="E119" s="63"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="52">
+      <c r="C120" s="49">
         <v>-2000</v>
       </c>
-      <c r="D120" s="64">
+      <c r="D120" s="60">
         <v>44145</v>
       </c>
-      <c r="E120" s="67"/>
+      <c r="E120" s="63"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C121" s="52">
+      <c r="C121" s="49">
         <v>-2000</v>
       </c>
-      <c r="D121" s="63">
+      <c r="D121" s="59">
         <v>44116</v>
       </c>
-      <c r="E121" s="67"/>
+      <c r="E121" s="63"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="52">
+      <c r="C122" s="49">
         <v>-2000</v>
       </c>
-      <c r="D122" s="64">
+      <c r="D122" s="60">
         <v>43871</v>
       </c>
-      <c r="E122" s="67"/>
+      <c r="E122" s="63"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="50" t="s">
+      <c r="B123" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="52">
+      <c r="C123" s="49">
         <v>-2000</v>
       </c>
-      <c r="D123" s="63">
+      <c r="D123" s="59">
         <v>43840</v>
       </c>
-      <c r="E123" s="67"/>
+      <c r="E123" s="63"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="52">
+      <c r="C124" s="49">
         <v>-2000</v>
       </c>
-      <c r="D124" s="64">
+      <c r="D124" s="60">
         <v>44084</v>
       </c>
-      <c r="E124" s="67"/>
+      <c r="E124" s="63"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="52">
+      <c r="C125" s="49">
         <v>-2000</v>
       </c>
-      <c r="D125" s="63">
+      <c r="D125" s="59">
         <v>44053</v>
       </c>
-      <c r="E125" s="67"/>
+      <c r="E125" s="63"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C126" s="52">
+      <c r="C126" s="49">
         <v>-2000</v>
       </c>
-      <c r="D126" s="64">
+      <c r="D126" s="60">
         <v>43780</v>
       </c>
-      <c r="E126" s="67"/>
+      <c r="E126" s="63"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="52">
+      <c r="C127" s="49">
         <v>-2000</v>
       </c>
-      <c r="D127" s="63">
+      <c r="D127" s="59">
         <v>43809</v>
       </c>
-      <c r="E127" s="67"/>
+      <c r="E127" s="63"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C128" s="52">
+      <c r="C128" s="49">
         <v>-2000</v>
       </c>
-      <c r="D128" s="64">
+      <c r="D128" s="60">
         <v>43626</v>
       </c>
-      <c r="E128" s="67"/>
+      <c r="E128" s="63"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C129" s="52">
+      <c r="C129" s="49">
         <v>-2000</v>
       </c>
-      <c r="D129" s="63">
+      <c r="D129" s="59">
         <v>44022</v>
       </c>
-      <c r="E129" s="67"/>
+      <c r="E129" s="63"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C130" s="52">
+      <c r="C130" s="49">
         <v>-2000</v>
       </c>
-      <c r="D130" s="64">
+      <c r="D130" s="60">
         <v>43565</v>
       </c>
-      <c r="E130" s="67"/>
+      <c r="E130" s="63"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="52">
+      <c r="C131" s="49">
         <v>-2000</v>
       </c>
-      <c r="D131" s="63">
+      <c r="D131" s="59">
         <v>43656</v>
       </c>
-      <c r="E131" s="67"/>
+      <c r="E131" s="63"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C132" s="52">
+      <c r="C132" s="49">
         <v>-2000</v>
       </c>
-      <c r="D132" s="64">
+      <c r="D132" s="60">
         <v>43901</v>
       </c>
-      <c r="E132" s="67"/>
+      <c r="E132" s="63"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C133" s="52">
+      <c r="C133" s="49">
         <v>-2000</v>
       </c>
-      <c r="D133" s="63">
+      <c r="D133" s="59">
         <v>43748</v>
       </c>
-      <c r="E133" s="67"/>
+      <c r="E133" s="63"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="52">
+      <c r="C134" s="49">
         <v>-2000</v>
       </c>
-      <c r="D134" s="64">
+      <c r="D134" s="60">
         <v>43719</v>
       </c>
-      <c r="E134" s="67"/>
+      <c r="E134" s="63"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="50" t="s">
+      <c r="B135" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C135" s="52">
+      <c r="C135" s="49">
         <v>-2000</v>
       </c>
-      <c r="D135" s="63">
+      <c r="D135" s="59">
         <v>43595</v>
       </c>
-      <c r="E135" s="69"/>
+      <c r="E135" s="65"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="51" t="s">
+      <c r="B136" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="52">
+      <c r="C136" s="49">
         <v>-2000</v>
       </c>
-      <c r="D136" s="64">
+      <c r="D136" s="60">
         <v>43690</v>
       </c>
-      <c r="E136" s="67"/>
+      <c r="E136" s="63"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C137" s="52">
+      <c r="C137" s="49">
         <v>-2000</v>
       </c>
-      <c r="D137" s="63">
+      <c r="D137" s="59">
         <v>43992</v>
       </c>
-      <c r="E137" s="67"/>
+      <c r="E137" s="63"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C138" s="52">
+      <c r="C138" s="49">
         <v>-2000</v>
       </c>
-      <c r="D138" s="64">
+      <c r="D138" s="60">
         <v>43962</v>
       </c>
-      <c r="E138" s="67"/>
+      <c r="E138" s="63"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="50" t="s">
+      <c r="B139" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="52">
+      <c r="C139" s="49">
         <v>-2000</v>
       </c>
-      <c r="D139" s="63">
+      <c r="D139" s="59">
         <v>43934</v>
       </c>
-      <c r="E139" s="67"/>
-    </row>
-    <row r="140" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="50"/>
-      <c r="C140" s="52">
+      <c r="E139" s="63"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="47"/>
+      <c r="C140" s="49">
         <f>89.225*1156.61</f>
         <v>103198.52724999998</v>
       </c>
-      <c r="D140" s="63">
+      <c r="D140" s="59">
         <v>44721</v>
       </c>
-      <c r="E140" s="67"/>
+      <c r="E140" s="63"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C141" s="52">
+      <c r="C141" s="49">
         <v>-1500</v>
       </c>
-      <c r="D141" s="64">
+      <c r="D141" s="60">
         <v>44510</v>
       </c>
-      <c r="E141" s="70">
+      <c r="E141" s="66">
         <f>XIRR(C141:C157,D141:D157)</f>
         <v>-5.0619989633560192E-4</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C142" s="52">
+      <c r="C142" s="49">
         <v>-1500</v>
       </c>
-      <c r="D142" s="63">
+      <c r="D142" s="59">
         <v>44572</v>
       </c>
-      <c r="E142" s="67"/>
+      <c r="E142" s="63"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="52">
+      <c r="C143" s="49">
         <v>-1500</v>
       </c>
-      <c r="D143" s="64">
+      <c r="D143" s="60">
         <v>44481</v>
       </c>
-      <c r="E143" s="67"/>
+      <c r="E143" s="63"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="52">
+      <c r="C144" s="49">
         <v>-1500</v>
       </c>
-      <c r="D144" s="63">
+      <c r="D144" s="59">
         <v>44662</v>
       </c>
-      <c r="E144" s="67"/>
+      <c r="E144" s="63"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C145" s="52">
+      <c r="C145" s="49">
         <v>-1500</v>
       </c>
-      <c r="D145" s="64">
+      <c r="D145" s="60">
         <v>44543</v>
       </c>
-      <c r="E145" s="67"/>
+      <c r="E145" s="63"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="52">
+      <c r="C146" s="49">
         <v>-1500</v>
       </c>
-      <c r="D146" s="63">
+      <c r="D146" s="59">
         <v>44452</v>
       </c>
-      <c r="E146" s="71"/>
+      <c r="E146" s="67"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C147" s="52">
+      <c r="C147" s="49">
         <v>-1500</v>
       </c>
-      <c r="D147" s="64">
+      <c r="D147" s="60">
         <v>44603</v>
       </c>
-      <c r="E147" s="67"/>
+      <c r="E147" s="63"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="50" t="s">
+      <c r="B148" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="52">
+      <c r="C148" s="49">
         <v>-1500</v>
       </c>
-      <c r="D148" s="63">
+      <c r="D148" s="59">
         <v>44631</v>
       </c>
-      <c r="E148" s="67"/>
+      <c r="E148" s="63"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C149" s="52">
+      <c r="C149" s="49">
         <v>-1500</v>
       </c>
-      <c r="D149" s="64">
+      <c r="D149" s="60">
         <v>44419</v>
       </c>
-      <c r="E149" s="67"/>
+      <c r="E149" s="63"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C150" s="52">
+      <c r="C150" s="49">
         <v>-1500</v>
       </c>
-      <c r="D150" s="63">
+      <c r="D150" s="59">
         <v>44390</v>
       </c>
-      <c r="E150" s="67"/>
+      <c r="E150" s="63"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="51" t="s">
+      <c r="B151" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="52">
+      <c r="C151" s="49">
         <v>-1500</v>
       </c>
-      <c r="D151" s="64">
+      <c r="D151" s="60">
         <v>44357</v>
       </c>
-      <c r="E151" s="67"/>
+      <c r="E151" s="63"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="50" t="s">
+      <c r="B152" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="52">
+      <c r="C152" s="49">
         <v>-1500</v>
       </c>
-      <c r="D152" s="63">
+      <c r="D152" s="59">
         <v>44237</v>
       </c>
-      <c r="E152" s="67"/>
+      <c r="E152" s="63"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="51" t="s">
+      <c r="B153" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="52">
+      <c r="C153" s="49">
         <v>-1500</v>
       </c>
-      <c r="D153" s="64">
+      <c r="D153" s="60">
         <v>44267</v>
       </c>
-      <c r="E153" s="67"/>
+      <c r="E153" s="63"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="52">
+      <c r="C154" s="49">
         <v>-1500</v>
       </c>
-      <c r="D154" s="63">
+      <c r="D154" s="59">
         <v>44327</v>
       </c>
-      <c r="E154" s="67"/>
+      <c r="E154" s="63"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="51" t="s">
+      <c r="B155" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="52">
+      <c r="C155" s="49">
         <v>-1500</v>
       </c>
-      <c r="D155" s="64">
+      <c r="D155" s="60">
         <v>44301</v>
       </c>
-      <c r="E155" s="67"/>
+      <c r="E155" s="63"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="50" t="s">
+      <c r="B156" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="52">
+      <c r="C156" s="49">
         <v>-1500</v>
       </c>
-      <c r="D156" s="63">
+      <c r="D156" s="59">
         <v>44207</v>
       </c>
-      <c r="E156" s="67"/>
-    </row>
-    <row r="157" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="50"/>
-      <c r="C157" s="52">
+      <c r="E156" s="63"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="47"/>
+      <c r="C157" s="49">
         <f>57.0767*420.32</f>
         <v>23990.478544000001</v>
       </c>
-      <c r="D157" s="63">
+      <c r="D157" s="59">
         <v>44721</v>
       </c>
-      <c r="E157" s="67"/>
+      <c r="E157" s="63"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="51" t="s">
+      <c r="B158" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C158" s="52">
+      <c r="C158" s="49">
         <v>-2000</v>
       </c>
-      <c r="D158" s="64">
+      <c r="D158" s="60">
         <v>43872</v>
       </c>
-      <c r="E158" s="66">
+      <c r="E158" s="62">
         <f>XIRR(C158:C193,D158:D193)</f>
         <v>0.13889982104301452</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="50" t="s">
+      <c r="B159" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C159" s="52">
+      <c r="C159" s="49">
         <v>-3000</v>
       </c>
-      <c r="D159" s="63">
+      <c r="D159" s="59">
         <v>44510</v>
       </c>
-      <c r="E159" s="67"/>
+      <c r="E159" s="63"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="51" t="s">
+      <c r="B160" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C160" s="52">
+      <c r="C160" s="49">
         <v>-3000</v>
       </c>
-      <c r="D160" s="64">
+      <c r="D160" s="60">
         <v>44543</v>
       </c>
-      <c r="E160" s="67"/>
+      <c r="E160" s="63"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="50" t="s">
+      <c r="B161" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="52">
+      <c r="C161" s="49">
         <v>-3000</v>
       </c>
-      <c r="D161" s="63">
+      <c r="D161" s="59">
         <v>44572</v>
       </c>
-      <c r="E161" s="67"/>
+      <c r="E161" s="63"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="51" t="s">
+      <c r="B162" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C162" s="52">
+      <c r="C162" s="49">
         <v>-3000</v>
       </c>
-      <c r="D162" s="64">
+      <c r="D162" s="60">
         <v>44481</v>
       </c>
-      <c r="E162" s="67"/>
+      <c r="E162" s="63"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="50" t="s">
+      <c r="B163" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C163" s="52">
+      <c r="C163" s="49">
         <v>-3000</v>
       </c>
-      <c r="D163" s="63">
+      <c r="D163" s="59">
         <v>44454</v>
       </c>
-      <c r="E163" s="67"/>
+      <c r="E163" s="63"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C164" s="52">
+      <c r="C164" s="49">
         <v>-3000</v>
       </c>
-      <c r="D164" s="64">
+      <c r="D164" s="60">
         <v>44603</v>
       </c>
-      <c r="E164" s="67"/>
+      <c r="E164" s="63"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="50" t="s">
+      <c r="B165" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C165" s="52">
+      <c r="C165" s="49">
         <v>-3000</v>
       </c>
-      <c r="D165" s="63">
+      <c r="D165" s="59">
         <v>44663</v>
       </c>
-      <c r="E165" s="67"/>
+      <c r="E165" s="63"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C166" s="52">
+      <c r="C166" s="49">
         <v>-3000</v>
       </c>
-      <c r="D166" s="64">
+      <c r="D166" s="60">
         <v>44631</v>
       </c>
-      <c r="E166" s="67"/>
+      <c r="E166" s="63"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="50" t="s">
+      <c r="B167" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C167" s="52">
+      <c r="C167" s="49">
         <v>-3000</v>
       </c>
-      <c r="D167" s="63">
+      <c r="D167" s="59">
         <v>44419</v>
       </c>
-      <c r="E167" s="67"/>
+      <c r="E167" s="63"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="51" t="s">
+      <c r="B168" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C168" s="52">
+      <c r="C168" s="49">
         <v>-3000</v>
       </c>
-      <c r="D168" s="64">
+      <c r="D168" s="60">
         <v>44390</v>
       </c>
-      <c r="E168" s="67"/>
+      <c r="E168" s="63"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="50" t="s">
+      <c r="B169" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="52">
+      <c r="C169" s="49">
         <v>-3000</v>
       </c>
-      <c r="D169" s="63">
+      <c r="D169" s="59">
         <v>44358</v>
       </c>
-      <c r="E169" s="67"/>
+      <c r="E169" s="63"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="51" t="s">
+      <c r="B170" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C170" s="52">
+      <c r="C170" s="49">
         <v>-3000</v>
       </c>
-      <c r="D170" s="64">
+      <c r="D170" s="60">
         <v>44327</v>
       </c>
-      <c r="E170" s="67"/>
+      <c r="E170" s="63"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C171" s="52">
+      <c r="C171" s="49">
         <v>-3000</v>
       </c>
-      <c r="D171" s="63">
+      <c r="D171" s="59">
         <v>44267</v>
       </c>
-      <c r="E171" s="67"/>
+      <c r="E171" s="63"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="52">
+      <c r="C172" s="49">
         <v>-3000</v>
       </c>
-      <c r="D172" s="64">
+      <c r="D172" s="60">
         <v>44239</v>
       </c>
-      <c r="E172" s="67"/>
+      <c r="E172" s="63"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="50" t="s">
+      <c r="B173" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="52">
+      <c r="C173" s="49">
         <v>-3000</v>
       </c>
-      <c r="D173" s="63">
+      <c r="D173" s="59">
         <v>44299</v>
       </c>
-      <c r="E173" s="67"/>
+      <c r="E173" s="63"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="51" t="s">
+      <c r="B174" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="52">
+      <c r="C174" s="49">
         <v>-3000</v>
       </c>
-      <c r="D174" s="64">
+      <c r="D174" s="60">
         <v>44207</v>
       </c>
-      <c r="E174" s="67"/>
+      <c r="E174" s="63"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="50" t="s">
+      <c r="B175" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C175" s="52">
+      <c r="C175" s="49">
         <v>-3000</v>
       </c>
-      <c r="D175" s="63">
+      <c r="D175" s="59">
         <v>44175</v>
       </c>
-      <c r="E175" s="67"/>
+      <c r="E175" s="63"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="51" t="s">
+      <c r="B176" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C176" s="52">
+      <c r="C176" s="49">
         <v>-3000</v>
       </c>
-      <c r="D176" s="64">
+      <c r="D176" s="60">
         <v>43871</v>
       </c>
-      <c r="E176" s="67"/>
+      <c r="E176" s="63"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="50" t="s">
+      <c r="B177" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C177" s="52">
+      <c r="C177" s="49">
         <v>-3000</v>
       </c>
-      <c r="D177" s="63">
+      <c r="D177" s="59">
         <v>44145</v>
       </c>
-      <c r="E177" s="67"/>
+      <c r="E177" s="63"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="51" t="s">
+      <c r="B178" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C178" s="52">
+      <c r="C178" s="49">
         <v>-3000</v>
       </c>
-      <c r="D178" s="64">
+      <c r="D178" s="60">
         <v>43840</v>
       </c>
-      <c r="E178" s="67"/>
+      <c r="E178" s="63"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="50" t="s">
+      <c r="B179" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C179" s="52">
+      <c r="C179" s="49">
         <v>-3000</v>
       </c>
-      <c r="D179" s="63">
+      <c r="D179" s="59">
         <v>43809</v>
       </c>
-      <c r="E179" s="67"/>
+      <c r="E179" s="63"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C180" s="52">
+      <c r="C180" s="49">
         <v>-3000</v>
       </c>
-      <c r="D180" s="64">
+      <c r="D180" s="60">
         <v>43780</v>
       </c>
-      <c r="E180" s="67"/>
+      <c r="E180" s="63"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="50" t="s">
+      <c r="B181" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C181" s="52">
+      <c r="C181" s="49">
         <v>-3000</v>
       </c>
-      <c r="D181" s="63">
+      <c r="D181" s="59">
         <v>44084</v>
       </c>
-      <c r="E181" s="67"/>
+      <c r="E181" s="63"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="51" t="s">
+      <c r="B182" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C182" s="52">
+      <c r="C182" s="49">
         <v>-3000</v>
       </c>
-      <c r="D182" s="64">
+      <c r="D182" s="60">
         <v>44116</v>
       </c>
-      <c r="E182" s="67"/>
+      <c r="E182" s="63"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="50" t="s">
+      <c r="B183" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="52">
+      <c r="C183" s="49">
         <v>-3000</v>
       </c>
-      <c r="D183" s="63">
+      <c r="D183" s="59">
         <v>43901</v>
       </c>
-      <c r="E183" s="67"/>
+      <c r="E183" s="63"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C184" s="52">
+      <c r="C184" s="49">
         <v>-3000</v>
       </c>
-      <c r="D184" s="64">
+      <c r="D184" s="60">
         <v>44053</v>
       </c>
-      <c r="E184" s="69"/>
+      <c r="E184" s="65"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="50" t="s">
+      <c r="B185" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C185" s="52">
+      <c r="C185" s="49">
         <v>-3000</v>
       </c>
-      <c r="D185" s="63">
+      <c r="D185" s="59">
         <v>43748</v>
       </c>
-      <c r="E185" s="67"/>
+      <c r="E185" s="63"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="51" t="s">
+      <c r="B186" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C186" s="52">
+      <c r="C186" s="49">
         <v>-3000</v>
       </c>
-      <c r="D186" s="64">
+      <c r="D186" s="60">
         <v>44022</v>
       </c>
-      <c r="E186" s="67"/>
+      <c r="E186" s="63"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="50" t="s">
+      <c r="B187" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C187" s="52">
+      <c r="C187" s="49">
         <v>-3000</v>
       </c>
-      <c r="D187" s="63">
+      <c r="D187" s="59">
         <v>43672</v>
       </c>
-      <c r="E187" s="67"/>
+      <c r="E187" s="63"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="51" t="s">
+      <c r="B188" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C188" s="52">
+      <c r="C188" s="49">
         <v>-3000</v>
       </c>
-      <c r="D188" s="64">
+      <c r="D188" s="60">
         <v>43719</v>
       </c>
-      <c r="E188" s="67"/>
+      <c r="E188" s="63"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="50" t="s">
+      <c r="B189" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="52">
+      <c r="C189" s="49">
         <v>-3000</v>
       </c>
-      <c r="D189" s="63">
+      <c r="D189" s="59">
         <v>43992</v>
       </c>
-      <c r="E189" s="67"/>
+      <c r="E189" s="63"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="51" t="s">
+      <c r="B190" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="52">
+      <c r="C190" s="49">
         <v>-3000</v>
       </c>
-      <c r="D190" s="64">
+      <c r="D190" s="60">
         <v>43934</v>
       </c>
-      <c r="E190" s="67"/>
+      <c r="E190" s="63"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="50" t="s">
+      <c r="B191" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C191" s="52">
+      <c r="C191" s="49">
         <v>-3000</v>
       </c>
-      <c r="D191" s="63">
+      <c r="D191" s="59">
         <v>43962</v>
       </c>
-      <c r="E191" s="67"/>
+      <c r="E191" s="63"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C192" s="52">
+      <c r="C192" s="49">
         <v>-7425</v>
       </c>
-      <c r="D192" s="64">
+      <c r="D192" s="60">
         <v>43672</v>
       </c>
-      <c r="E192" s="67"/>
+      <c r="E192" s="63"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="60" t="s">
+      <c r="B193" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C193" s="61">
+      <c r="C193" s="57">
         <v>134537.78</v>
       </c>
-      <c r="D193" s="64">
+      <c r="D193" s="60">
         <v>44724</v>
       </c>
-      <c r="E193" s="72"/>
+      <c r="E193" s="68"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="59"/>
+      <c r="B194" s="55"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="59"/>
+      <c r="B195" s="55"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D20">
